--- a/room/inventory.xlsx
+++ b/room/inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\just_data\projects\workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\projects\workshop\room\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552878A4-0D7F-4253-A6E6-9BB4B482509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88C82C8-F622-4FEA-AE73-6072A8791BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="19400" xr2:uid="{EE08FAA0-8F63-4D96-AC98-8D6BF46A9845}"/>
+    <workbookView xWindow="15000" yWindow="0" windowWidth="15000" windowHeight="19400" xr2:uid="{EE08FAA0-8F63-4D96-AC98-8D6BF46A9845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -141,13 +141,28 @@
   </si>
   <si>
     <t>Project table</t>
+  </si>
+  <si>
+    <t>Workshop-Table</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Living</t>
+  </si>
+  <si>
+    <t>Armchair-Shelf</t>
+  </si>
+  <si>
+    <t>Anytables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +191,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +227,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFAE082"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -246,15 +273,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -264,11 +293,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
+    <cellStyle name="Anytables" xfId="7" xr:uid="{0C9E527E-76E6-42BE-8C45-A2A981FDCFEE}"/>
+    <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Storage" xfId="4" xr:uid="{99D9F643-DC04-48F9-90DB-36C4FC90B2BB}"/>
@@ -609,19 +643,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC35DDF-0DCC-4AEF-985F-3A9F0C4738DF}">
-  <dimension ref="B2:D35"/>
+  <dimension ref="B2:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="4" max="4" width="47.54296875" customWidth="1"/>
+    <col min="4" max="4" width="41.453125" customWidth="1"/>
+    <col min="7" max="7" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -632,7 +667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -641,7 +676,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -650,7 +685,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -659,7 +694,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -667,8 +702,12 @@
         <v>6</v>
       </c>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F6" s="9"/>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -676,8 +715,12 @@
         <v>7</v>
       </c>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F7" s="8"/>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -685,8 +728,12 @@
         <v>8</v>
       </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F8" s="5"/>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>7</v>
       </c>
@@ -694,8 +741,12 @@
         <v>10</v>
       </c>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F9" s="2"/>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>8</v>
       </c>
@@ -704,7 +755,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>9</v>
       </c>
@@ -713,7 +764,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>10</v>
       </c>
@@ -722,7 +773,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -731,7 +782,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>12</v>
       </c>
@@ -739,7 +790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="7">
         <v>13</v>
       </c>
@@ -747,11 +798,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="7">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -900,11 +951,19 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="9">
+      <c r="B35" s="7">
         <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="11">
+        <v>34</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/room/inventory.xlsx
+++ b/room/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\projects\workshop\room\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88C82C8-F622-4FEA-AE73-6072A8791BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE88BE93-E7EB-4C19-9B94-72B188CB1FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="0" windowWidth="15000" windowHeight="19400" xr2:uid="{EE08FAA0-8F63-4D96-AC98-8D6BF46A9845}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{EE08FAA0-8F63-4D96-AC98-8D6BF46A9845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Anytables</t>
+  </si>
+  <si>
+    <t>Boxes-Storage</t>
+  </si>
+  <si>
+    <t>Wardrobe-Storage</t>
   </si>
 </sst>
 </file>
@@ -283,7 +289,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -295,8 +301,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -643,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC35DDF-0DCC-4AEF-985F-3A9F0C4738DF}">
-  <dimension ref="B2:G36"/>
+  <dimension ref="B2:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,11 +967,27 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="11">
+      <c r="B36" s="7">
         <v>34</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="12">
+        <v>35</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="12">
+        <v>36</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
